--- a/omy/Customers Not found.xlsx
+++ b/omy/Customers Not found.xlsx
@@ -11,6 +11,44 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Jim SÈNE</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Vicki  Sankey</t>
+  </si>
+  <si>
+    <t>Omar Jufaidan</t>
+  </si>
+  <si>
+    <t>Kamila Houhova; Pavel Komarek; Petra Dudova; Vojtech Bartos</t>
+  </si>
+  <si>
+    <t>Yaning Qiao</t>
+  </si>
+  <si>
+    <t>Gašper Bricelj</t>
+  </si>
+  <si>
+    <t>dongxu liu</t>
+  </si>
+  <si>
+    <t>Wang&amp;#47;Yuanxin</t>
+  </si>
+  <si>
+    <t>Andreas Lehmann; Robert Muralt</t>
+  </si>
+  <si>
+    <t>Jesús Alberto Suárez Alvarellos</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +378,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>